--- a/biology/Zoologie/Architarbidae/Architarbidae.xlsx
+++ b/biology/Zoologie/Architarbidae/Architarbidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalangiotarbidae
 Les Architarbidae sont une famille fossile d'araignées appartenant à l'ordre également fossile des Phalangiotarbida.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Architarbidae est décrite par Ferdinand Karsch en 1882[1],[2].
-Synonyme
-La famille des Phalangiotarbidae Haase, 1890 est déclarée synonyme de Architarbidae en 2013 par Dunlop et al.[2].
-Fossiles
-Selon Paleobiology Database en 2023, vingt-trois collections de fossiles pour quarante-trois occurrences sont référencées, toutes du Carbonifère, une en Tchéquie, quatre en Allemagne, neuf au Royaume-Uni, et neuf aux États-Unis en Illinois et Indiana[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Architarbidae est décrite par Ferdinand Karsch en 1882,.
 </t>
         </is>
       </c>
@@ -544,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les genres et espèces de cette famille datent du Carbonifère sauf Devonotarbus hombachensis qui est daté du Dévonien.
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Phalangiotarbidae Haase, 1890 est déclarée synonyme de Architarbidae en 2013 par Dunlop et al..
 </t>
         </is>
       </c>
@@ -575,12 +591,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, vingt-trois collections de fossiles pour quarante-trois occurrences sont référencées, toutes du Carbonifère, une en Tchéquie, quatre en Allemagne, neuf au Royaume-Uni, et neuf aux États-Unis en Illinois et Indiana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Architarbidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Architarbidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres et espèces de cette famille datent du Carbonifère sauf Devonotarbus hombachensis qui est daté du Dévonien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Architarbidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Architarbidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The World Spider Catalog 11.0[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The World Spider Catalog 11.0 :
 Architarbus Scudder, 1868
 Bornatarbus Rößler &amp; Schneider, 1997
 Devonotarbus Poschmann, Anderson &amp; Dunlop, 2005 reclassée dans la famille Devonotarbidae selon Paleobiology Database ;
